--- a/results/ContrastBasedAttack.xlsx
+++ b/results/ContrastBasedAttack.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7E3C5-088A-4760-AA11-16D43486BAF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD2E9F-6438-487E-90C7-60E68AC413BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" activeTab="1" xr2:uid="{260C2C63-8E7C-4988-B91E-4EB3FB39E384}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" activeTab="3" xr2:uid="{260C2C63-8E7C-4988-B91E-4EB3FB39E384}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="73">
   <si>
     <t>ssh://ady@skr-compute1.cs.uchicago.edu:22/home/ady/anaconda3/bin/python3.6 -u /home/ady/code/bandlimited-cnns/cnns/nnlib/pytorch_experiments/robustness/pytorch_resnet18_full_cifar10_attack.py</t>
   </si>
@@ -176,6 +172,81 @@
   </si>
   <si>
     <t>start time:  2019-03-13 18:50:53.294649</t>
+  </si>
+  <si>
+    <t>ssh://ady@skr-compute1.cs.uchicago.edu:22/home/ady/anaconda3/bin/python3.6 -u /home/ady/code/bandlimited-cnns-pycharm-win/cnns/nnlib/robustness/pytorch_resnet18_full_cifar10_attack.py</t>
+  </si>
+  <si>
+    <t>Using: TkAgg</t>
+  </si>
+  <si>
+    <t>current directory is:  /local/ady/code/bandlimited-cnns-pycharm-win/cnns/nnlib/robustness</t>
+  </si>
+  <si>
+    <t>start time:  2019-04-16 15:20:06.466396</t>
+  </si>
+  <si>
+    <t>model path:  2019-04-08-19-53-50-779103-dataset-cifar10-preserve-energy-100.0-compress-rate-0.0-test-accuracy-93.48-rounding-32-values-per-channel.model</t>
+  </si>
+  <si>
+    <t>attack type:  ContrastReductionAttack</t>
+  </si>
+  <si>
+    <t>attack name</t>
+  </si>
+  <si>
+    <t>total counter</t>
+  </si>
+  <si>
+    <t># no adversarials found</t>
+  </si>
+  <si>
+    <t># correctly classified</t>
+  </si>
+  <si>
+    <t>no adversarial rate (%)</t>
+  </si>
+  <si>
+    <t># corrected by round</t>
+  </si>
+  <si>
+    <t># adversarials</t>
+  </si>
+  <si>
+    <t>corrected by round rate (%)</t>
+  </si>
+  <si>
+    <t>time (sec)</t>
+  </si>
+  <si>
+    <t>% of adversarials</t>
+  </si>
+  <si>
+    <t>32 values per channel</t>
+  </si>
+  <si>
+    <t>256 values</t>
+  </si>
+  <si>
+    <t>start time:  2019-04-16 15:38:11.034740</t>
+  </si>
+  <si>
+    <t>model path:  saved_model_2019-04-11-04-51-57-429818-dataset-cifar10-preserve-energy-100.0-compress-rate-0.0-test-accuracy-93.48-channel-vals-256.model</t>
+  </si>
+  <si>
+    <t>start time:  2019-04-16 15:44:29.592228</t>
+  </si>
+  <si>
+    <t># test accuracy</t>
+  </si>
+  <si>
+    <t>model path:  saved_model_2019-04-11-07-18-28-194468-dataset-cifar10-preserve-energy-100.0-compress-rate-0.0-test-accuracy-78.25-channel-vals-2.model</t>
+  </si>
+  <si>
+    <t>start time:  2019-04-16 16:18:05.890595</t>
+  </si>
+  <si>
+    <t>end time:  2019-04-16 16:26:55.375235</t>
   </si>
 </sst>
 </file>
@@ -5071,7 +5142,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A153:G161">
+  <sortState ref="A153:G161">
     <sortCondition ref="C153:C161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5082,7 +5153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944858AC-1F24-4928-A268-B44DE54D1291}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5719,4 +5790,2155 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83165AF1-34D6-473C-AD99-032081080021}">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61:L72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>4.9014625549316397</v>
+      </c>
+      <c r="L13">
+        <f>(F13-E13)/F13*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>4.9030988216400102</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L23" si="0">(F14-E14)/F14*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <v>93</v>
+      </c>
+      <c r="G15">
+        <v>98.924731182795696</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>4.86549496650695</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1.0752688172043012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>93</v>
+      </c>
+      <c r="G16">
+        <v>98.924731182795696</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>4.8635065555572501</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.0752688172043012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>96.774193548387103</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="K17">
+        <v>4.8205506801605198</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>93</v>
+      </c>
+      <c r="G18">
+        <v>94.623655913978496</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5.0565519332885698</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>5.376344086021505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>93</v>
+      </c>
+      <c r="G19">
+        <v>91.3978494623655</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>5.0100314617156902</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>8.6021505376344098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>72.043010752688105</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>11.538461538461499</v>
+      </c>
+      <c r="K20">
+        <v>6.3784418106079102</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>27.956989247311824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>93</v>
+      </c>
+      <c r="G21">
+        <v>36.559139784946197</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>59</v>
+      </c>
+      <c r="J21">
+        <v>6.7796610169491496</v>
+      </c>
+      <c r="K21">
+        <v>8.8820872306823695</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>63.44086021505376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>0.9</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>93</v>
+      </c>
+      <c r="G22">
+        <v>17.204301075268798</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>77</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>9.8909683227538991</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>82.795698924731184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>93</v>
+      </c>
+      <c r="G23">
+        <v>13.9784946236559</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10.4571387767791</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>86.021505376344081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <v>94</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>4.8422255516052202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>94</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>4.7277729511260898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>94</v>
+      </c>
+      <c r="F40">
+        <v>94</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>4.7665078639984104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.3</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>94</v>
+      </c>
+      <c r="F41">
+        <v>94</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>4.9577231407165501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <v>94</v>
+      </c>
+      <c r="G42">
+        <v>94.680851063829707</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>4.8363325595855704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>86</v>
+      </c>
+      <c r="F43">
+        <v>94</v>
+      </c>
+      <c r="G43">
+        <v>91.489361702127596</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>5.2716279029846103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>0.6</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>94</v>
+      </c>
+      <c r="G44">
+        <v>82.978723404255305</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>6.25</v>
+      </c>
+      <c r="K44">
+        <v>5.3845677375793404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.7</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>67</v>
+      </c>
+      <c r="F45">
+        <v>94</v>
+      </c>
+      <c r="G45">
+        <v>71.276595744680805</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>27</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>5.86269187927246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0.8</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>94</v>
+      </c>
+      <c r="G46">
+        <v>36.170212765957402</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>7.4923765659332204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>94</v>
+      </c>
+      <c r="G47">
+        <v>10.6382978723404</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>84</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>9.0023119449615407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>94</v>
+      </c>
+      <c r="G48">
+        <v>9.5744680851063801</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>85</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>8.3197131156921298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+      <c r="E62">
+        <v>936</v>
+      </c>
+      <c r="F62">
+        <v>936</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>42.953768491744903</v>
+      </c>
+      <c r="L62">
+        <f>(F62-I62+H62)/D62*100</f>
+        <v>93.600000000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>0.1</v>
+      </c>
+      <c r="D63">
+        <v>1000</v>
+      </c>
+      <c r="E63">
+        <v>930</v>
+      </c>
+      <c r="F63">
+        <v>936</v>
+      </c>
+      <c r="G63">
+        <v>99.358974358974294</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>44.641850709915097</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63:L72" si="1">(F63-I63+H63)/D63*100</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>0.2</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="E64">
+        <v>920</v>
+      </c>
+      <c r="F64">
+        <v>936</v>
+      </c>
+      <c r="G64">
+        <v>98.290598290598197</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>44.270993232727001</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>0.3</v>
+      </c>
+      <c r="D65">
+        <v>1000</v>
+      </c>
+      <c r="E65">
+        <v>911</v>
+      </c>
+      <c r="F65">
+        <v>936</v>
+      </c>
+      <c r="G65">
+        <v>97.329059829059801</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>45.058505058288503</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>91.100000000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>0.4</v>
+      </c>
+      <c r="D66">
+        <v>1000</v>
+      </c>
+      <c r="E66">
+        <v>889</v>
+      </c>
+      <c r="F66">
+        <v>936</v>
+      </c>
+      <c r="G66">
+        <v>94.978632478632406</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>47</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>47.127035617828298</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>1000</v>
+      </c>
+      <c r="E67">
+        <v>866</v>
+      </c>
+      <c r="F67">
+        <v>936</v>
+      </c>
+      <c r="G67">
+        <v>92.521367521367495</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>70</v>
+      </c>
+      <c r="J67">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="K67">
+        <v>48.603360414504998</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68">
+        <v>0.6</v>
+      </c>
+      <c r="D68">
+        <v>1000</v>
+      </c>
+      <c r="E68">
+        <v>794</v>
+      </c>
+      <c r="F68">
+        <v>936</v>
+      </c>
+      <c r="G68">
+        <v>84.829059829059801</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>142</v>
+      </c>
+      <c r="J68">
+        <v>2.8169014084507</v>
+      </c>
+      <c r="K68">
+        <v>53.501584529876702</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>79.800000000000011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+      <c r="E69">
+        <v>662</v>
+      </c>
+      <c r="F69">
+        <v>936</v>
+      </c>
+      <c r="G69">
+        <v>70.726495726495699</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>274</v>
+      </c>
+      <c r="J69">
+        <v>1.4598540145985399</v>
+      </c>
+      <c r="K69">
+        <v>64.640360116958604</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>66.600000000000009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>0.8</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+      <c r="E70">
+        <v>340</v>
+      </c>
+      <c r="F70">
+        <v>936</v>
+      </c>
+      <c r="G70">
+        <v>36.324786324786302</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>596</v>
+      </c>
+      <c r="J70">
+        <v>0.50335570469798596</v>
+      </c>
+      <c r="K70">
+        <v>87.102835655212402</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>34.300000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>0.9</v>
+      </c>
+      <c r="D71">
+        <v>1000</v>
+      </c>
+      <c r="E71">
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <v>936</v>
+      </c>
+      <c r="G71">
+        <v>10.2564102564102</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>840</v>
+      </c>
+      <c r="J71">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="K71">
+        <v>81.231527566909705</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1000</v>
+      </c>
+      <c r="E72">
+        <v>92</v>
+      </c>
+      <c r="F72">
+        <v>936</v>
+      </c>
+      <c r="G72">
+        <v>9.8290598290598297</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>844</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>82.723717689514103</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C7734-AEE3-4908-96A6-2FF5389E06C1}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>782</v>
+      </c>
+      <c r="F11">
+        <v>782</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>43.270167589187601</v>
+      </c>
+      <c r="L11">
+        <f>(F11-I11+H11)/D11*100</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>768</v>
+      </c>
+      <c r="F12">
+        <v>782</v>
+      </c>
+      <c r="G12">
+        <v>98.209718670076697</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>43.383081197738598</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L21" si="0">(F12-I12+H12)/D12*100</f>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>761</v>
+      </c>
+      <c r="F13">
+        <v>782</v>
+      </c>
+      <c r="G13">
+        <v>97.314578005115095</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>43.289220333099301</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>758</v>
+      </c>
+      <c r="F14">
+        <v>782</v>
+      </c>
+      <c r="G14">
+        <v>96.930946291560105</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>43.544856309890697</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>0.4</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>747</v>
+      </c>
+      <c r="F15">
+        <v>782</v>
+      </c>
+      <c r="G15">
+        <v>95.524296675191806</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>43.869174242019596</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>733</v>
+      </c>
+      <c r="F16">
+        <v>782</v>
+      </c>
+      <c r="G16">
+        <v>93.734015345268503</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>49</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>44.768277883529599</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>712</v>
+      </c>
+      <c r="F17">
+        <v>782</v>
+      </c>
+      <c r="G17">
+        <v>91.048593350383598</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>45.3374474048614</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>706</v>
+      </c>
+      <c r="F18">
+        <v>782</v>
+      </c>
+      <c r="G18">
+        <v>90.281329923273603</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>45.841323137283297</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>687</v>
+      </c>
+      <c r="F19">
+        <v>782</v>
+      </c>
+      <c r="G19">
+        <v>87.851662404091996</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>46.066474199295001</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>577</v>
+      </c>
+      <c r="F20">
+        <v>782</v>
+      </c>
+      <c r="G20">
+        <v>73.785166240409197</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>205</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>51.139267206192002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>57.699999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>782</v>
+      </c>
+      <c r="G21">
+        <v>9.7186700767263403</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>706</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>72.956816911697302</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/ContrastBasedAttack.xlsx
+++ b/results/ContrastBasedAttack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD2E9F-6438-487E-90C7-60E68AC413BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA68A2-8C5F-489E-AFB8-2B71B1C29CA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" activeTab="3" xr2:uid="{260C2C63-8E7C-4988-B91E-4EB3FB39E384}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" xr2:uid="{260C2C63-8E7C-4988-B91E-4EB3FB39E384}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="73">
   <si>
     <t>ssh://ady@skr-compute1.cs.uchicago.edu:22/home/ady/anaconda3/bin/python3.6 -u /home/ady/code/bandlimited-cnns/cnns/nnlib/pytorch_experiments/robustness/pytorch_resnet18_full_cifar10_attack.py</t>
   </si>
@@ -1804,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D7D62A-35BE-4F3F-84EA-35EC4BB02693}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4614,26 +4614,26 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185">
-        <v>84</v>
+      <c r="A185" t="s">
+        <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185">
-        <v>3.1</v>
-      </c>
-      <c r="D185">
-        <v>211</v>
-      </c>
-      <c r="E185">
-        <v>1000</v>
-      </c>
-      <c r="F185">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="G185">
-        <v>213.83094930648801</v>
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4644,19 +4644,19 @@
         <v>45</v>
       </c>
       <c r="C186">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D186">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E186">
         <v>1000</v>
       </c>
       <c r="F186">
-        <v>0.20699999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G186">
-        <v>213.574878454208</v>
+        <v>213.83094930648801</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4667,19 +4667,19 @@
         <v>45</v>
       </c>
       <c r="C187">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D187">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E187">
         <v>1000</v>
       </c>
       <c r="F187">
-        <v>0.20200000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="G187">
-        <v>218.57027316093399</v>
+        <v>213.574878454208</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4690,19 +4690,19 @@
         <v>45</v>
       </c>
       <c r="C188">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D188">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>1000</v>
       </c>
       <c r="F188">
-        <v>0.2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="G188">
-        <v>175.267798185348</v>
+        <v>218.57027316093399</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4713,19 +4713,19 @@
         <v>45</v>
       </c>
       <c r="C189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D189">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E189">
         <v>1000</v>
       </c>
       <c r="F189">
-        <v>0.19600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G189">
-        <v>114.028005599975</v>
+        <v>175.267798185348</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4736,19 +4736,19 @@
         <v>45</v>
       </c>
       <c r="C190">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D190">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E190">
         <v>1000</v>
       </c>
       <c r="F190">
-        <v>0.20100000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G190">
-        <v>110.810024738311</v>
+        <v>114.028005599975</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4759,19 +4759,19 @@
         <v>45</v>
       </c>
       <c r="C191">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D191">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E191">
         <v>1000</v>
       </c>
       <c r="F191">
-        <v>0.19700000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="G191">
-        <v>116.037495613098</v>
+        <v>110.810024738311</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4782,19 +4782,19 @@
         <v>45</v>
       </c>
       <c r="C192">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D192">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E192">
         <v>1000</v>
       </c>
       <c r="F192">
-        <v>0.193</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G192">
-        <v>110.18922114372199</v>
+        <v>116.037495613098</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4805,19 +4805,19 @@
         <v>45</v>
       </c>
       <c r="C193">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D193">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E193">
         <v>1000</v>
       </c>
       <c r="F193">
-        <v>0.185</v>
+        <v>0.193</v>
       </c>
       <c r="G193">
-        <v>109.601399421691</v>
+        <v>110.18922114372199</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4828,47 +4828,47 @@
         <v>45</v>
       </c>
       <c r="C194">
+        <v>3.9</v>
+      </c>
+      <c r="D194">
+        <v>185</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>0.185</v>
+      </c>
+      <c r="G194">
+        <v>109.601399421691</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>84</v>
+      </c>
+      <c r="B195" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195">
         <v>4</v>
       </c>
-      <c r="D194">
+      <c r="D195">
         <v>184</v>
       </c>
-      <c r="E194">
-        <v>1000</v>
-      </c>
-      <c r="F194">
+      <c r="E195">
+        <v>1000</v>
+      </c>
+      <c r="F195">
         <v>0.184</v>
       </c>
-      <c r="G194">
+      <c r="G195">
         <v>108.762120723724</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196">
-        <v>0</v>
-      </c>
-      <c r="B196" t="s">
-        <v>45</v>
-      </c>
-      <c r="C196">
-        <v>3.1</v>
-      </c>
-      <c r="D196">
-        <v>385</v>
-      </c>
-      <c r="E196">
-        <v>1000</v>
-      </c>
-      <c r="F196">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G196">
-        <v>131.641612052917</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4879,34 +4879,52 @@
         <v>45</v>
       </c>
       <c r="C197">
+        <v>3.1</v>
+      </c>
+      <c r="D197">
+        <v>385</v>
+      </c>
+      <c r="E197">
+        <v>1000</v>
+      </c>
+      <c r="F197">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G197">
+        <v>131.641612052917</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198">
         <v>3.2</v>
       </c>
-      <c r="D197">
+      <c r="D198">
         <v>382</v>
       </c>
-      <c r="E197">
-        <v>1000</v>
-      </c>
-      <c r="F197">
+      <c r="E198">
+        <v>1000</v>
+      </c>
+      <c r="F198">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G197">
+      <c r="G198">
         <v>133.40115904807999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4916,68 +4934,50 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
-        <v>45</v>
-      </c>
-      <c r="C208">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D208">
-        <v>307</v>
-      </c>
-      <c r="E208">
-        <v>1000</v>
-      </c>
-      <c r="F208">
-        <v>0.307</v>
-      </c>
-      <c r="G208">
-        <v>132.52118659019399</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4988,19 +4988,19 @@
         <v>45</v>
       </c>
       <c r="C209">
-        <v>4.1999999999999904</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D209">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E209">
         <v>1000</v>
       </c>
       <c r="F209">
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="G209">
-        <v>128.12920522689799</v>
+        <v>132.52118659019399</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5011,19 +5011,19 @@
         <v>45</v>
       </c>
       <c r="C210">
-        <v>4.3</v>
+        <v>4.1999999999999904</v>
       </c>
       <c r="D210">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E210">
         <v>1000</v>
       </c>
       <c r="F210">
-        <v>0.29699999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G210">
-        <v>134.34096002578701</v>
+        <v>128.12920522689799</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5034,19 +5034,19 @@
         <v>45</v>
       </c>
       <c r="C211">
-        <v>4.3999999999999897</v>
+        <v>4.3</v>
       </c>
       <c r="D211">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E211">
         <v>1000</v>
       </c>
       <c r="F211">
-        <v>0.29199999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G211">
-        <v>134.158747434616</v>
+        <v>134.34096002578701</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5057,19 +5057,19 @@
         <v>45</v>
       </c>
       <c r="C212">
-        <v>4.5</v>
+        <v>4.3999999999999897</v>
       </c>
       <c r="D212">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E212">
         <v>1000</v>
       </c>
       <c r="F212">
-        <v>0.28699999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="G212">
-        <v>129.995982646942</v>
+        <v>134.158747434616</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5080,19 +5080,19 @@
         <v>45</v>
       </c>
       <c r="C213">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D213">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E213">
         <v>1000</v>
       </c>
       <c r="F213">
-        <v>0.28000000000000003</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="G213">
-        <v>128.85620260238599</v>
+        <v>129.995982646942</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5103,19 +5103,19 @@
         <v>45</v>
       </c>
       <c r="C214">
-        <v>4.6999999999999904</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D214">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E214">
         <v>1000</v>
       </c>
       <c r="F214">
-        <v>0.27200000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G214">
-        <v>128.19307279586701</v>
+        <v>128.85620260238599</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5126,18 +5126,41 @@
         <v>45</v>
       </c>
       <c r="C215">
+        <v>4.6999999999999904</v>
+      </c>
+      <c r="D215">
+        <v>272</v>
+      </c>
+      <c r="E215">
+        <v>1000</v>
+      </c>
+      <c r="F215">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G215">
+        <v>128.19307279586701</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216">
         <v>4.8</v>
       </c>
-      <c r="D215">
+      <c r="D216">
         <v>271</v>
       </c>
-      <c r="E215">
-        <v>1000</v>
-      </c>
-      <c r="F215">
+      <c r="E216">
+        <v>1000</v>
+      </c>
+      <c r="F216">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G215">
+      <c r="G216">
         <v>133.701603412628</v>
       </c>
     </row>
@@ -5153,7 +5176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944858AC-1F24-4928-A268-B44DE54D1291}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5582,7 +5605,7 @@
         <v>3.1</v>
       </c>
       <c r="B33">
-        <f>data!F196*100</f>
+        <f>data!F197*100</f>
         <v>38.5</v>
       </c>
       <c r="C33">
@@ -5599,7 +5622,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="C34">
-        <f>data!F186*100</f>
+        <f>data!F187*100</f>
         <v>20.7</v>
       </c>
     </row>
@@ -5612,7 +5635,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="C35">
-        <f>data!F187*100</f>
+        <f>data!F188*100</f>
         <v>20.200000000000003</v>
       </c>
     </row>
@@ -5625,7 +5648,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="C36">
-        <f>data!F188*100</f>
+        <f>data!F189*100</f>
         <v>20</v>
       </c>
     </row>
@@ -5638,7 +5661,7 @@
         <v>35.699999999999996</v>
       </c>
       <c r="C37">
-        <f>data!F189*100</f>
+        <f>data!F190*100</f>
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -5651,7 +5674,7 @@
         <v>35.099999999999994</v>
       </c>
       <c r="C38">
-        <f>data!F190*100</f>
+        <f>data!F191*100</f>
         <v>20.100000000000001</v>
       </c>
     </row>
@@ -5664,7 +5687,7 @@
         <v>34</v>
       </c>
       <c r="C39">
-        <f>data!F191*100</f>
+        <f>data!F192*100</f>
         <v>19.7</v>
       </c>
     </row>
@@ -5677,7 +5700,7 @@
         <v>33.4</v>
       </c>
       <c r="C40">
-        <f>data!F192*100</f>
+        <f>data!F193*100</f>
         <v>19.3</v>
       </c>
     </row>
@@ -5690,7 +5713,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C41">
-        <f>data!F193*100</f>
+        <f>data!F194*100</f>
         <v>18.5</v>
       </c>
     </row>
@@ -5703,7 +5726,7 @@
         <v>31.6</v>
       </c>
       <c r="C42">
-        <f>data!F194*100</f>
+        <f>data!F195*100</f>
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -5712,7 +5735,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B43">
-        <f>data!F208*100</f>
+        <f>data!F209*100</f>
         <v>30.7</v>
       </c>
     </row>
@@ -5721,7 +5744,7 @@
         <v>4.2</v>
       </c>
       <c r="B44">
-        <f>data!F209*100</f>
+        <f>data!F210*100</f>
         <v>30</v>
       </c>
     </row>
@@ -5730,7 +5753,7 @@
         <v>4.3</v>
       </c>
       <c r="B45">
-        <f>data!F210*100</f>
+        <f>data!F211*100</f>
         <v>29.7</v>
       </c>
     </row>
@@ -5739,7 +5762,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B46">
-        <f>data!F211*100</f>
+        <f>data!F212*100</f>
         <v>29.2</v>
       </c>
     </row>
@@ -5748,7 +5771,7 @@
         <v>4.5</v>
       </c>
       <c r="B47">
-        <f>data!F212*100</f>
+        <f>data!F213*100</f>
         <v>28.7</v>
       </c>
     </row>
@@ -5757,7 +5780,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B48">
-        <f>data!F213*100</f>
+        <f>data!F214*100</f>
         <v>28.000000000000004</v>
       </c>
     </row>
@@ -5766,7 +5789,7 @@
         <v>4.7</v>
       </c>
       <c r="B49">
-        <f>data!F214*100</f>
+        <f>data!F215*100</f>
         <v>27.200000000000003</v>
       </c>
     </row>
@@ -5797,7 +5820,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61:L72"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7415,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C7734-AEE3-4908-96A6-2FF5389E06C1}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
